--- a/data/state_election_results/virginia_president.xlsx
+++ b/data/state_election_results/virginia_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F7B622-0993-FF42-8580-EFE42DBA8B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E7B475-5421-374F-8E37-E10002FB887C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7900" yWindow="7200" windowWidth="24040" windowHeight="12440" xr2:uid="{12775AAE-0BD0-BE48-AD87-C1A3A64BE3AA}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>biden.votes</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
   </si>
   <si>
     <t>Winchester</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -498,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,32 +815,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C473BC-D8C4-2047-B316-7C3EA922785F}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A134"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>7578</v>
@@ -857,7 +855,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>42466</v>
@@ -874,7 +872,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2">
         <v>66240</v>
@@ -891,7 +889,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>2243</v>
@@ -908,7 +906,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>2411</v>
@@ -925,7 +923,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>5672</v>
@@ -942,7 +940,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>2418</v>
@@ -959,7 +957,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>105344</v>
@@ -976,7 +974,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>10840</v>
@@ -993,7 +991,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>646</v>
@@ -1010,7 +1008,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>12176</v>
@@ -1027,7 +1025,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>532</v>
@@ -1044,7 +1042,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>5700</v>
@@ -1061,7 +1059,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2">
         <v>2313</v>
@@ -1078,7 +1076,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>4552</v>
@@ -1095,7 +1093,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>1587</v>
@@ -1112,7 +1110,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>3471</v>
@@ -1129,7 +1127,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>825</v>
@@ -1146,7 +1144,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>8070</v>
@@ -1163,7 +1161,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>7657</v>
@@ -1180,7 +1178,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>2842</v>
@@ -1197,7 +1195,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>2624</v>
@@ -1214,7 +1212,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>2317</v>
@@ -1231,7 +1229,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2">
         <v>20696</v>
@@ -1248,7 +1246,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2">
         <v>66377</v>
@@ -1265,7 +1263,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>106935</v>
@@ -1282,7 +1280,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
         <v>3920</v>
@@ -1299,7 +1297,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2">
         <v>2972</v>
@@ -1316,7 +1314,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30">
         <v>964</v>
@@ -1333,7 +1331,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>587</v>
@@ -1350,7 +1348,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2">
         <v>10617</v>
@@ -1367,7 +1365,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2">
         <v>2227</v>
@@ -1384,7 +1382,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="2">
         <v>11710</v>
@@ -1401,7 +1399,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2">
         <v>1503</v>
@@ -1418,7 +1416,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2">
         <v>6224</v>
@@ -1435,7 +1433,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="2">
         <v>1612</v>
@@ -1452,7 +1450,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2">
         <v>3038</v>
@@ -1469,7 +1467,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2">
         <v>9174</v>
@@ -1486,7 +1484,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="2">
         <v>419943</v>
@@ -1503,7 +1501,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="2">
         <v>7146</v>
@@ -1520,7 +1518,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2">
         <v>17565</v>
@@ -1537,7 +1535,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2">
         <v>3004</v>
@@ -1554,7 +1552,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2">
         <v>7414</v>
@@ -1571,7 +1569,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2">
         <v>2525</v>
@@ -1588,7 +1586,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2">
         <v>8381</v>
@@ -1605,7 +1603,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2">
         <v>17207</v>
@@ -1622,7 +1620,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2">
         <v>8517</v>
@@ -1639,7 +1637,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49">
         <v>777</v>
@@ -1656,7 +1654,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="2">
         <v>2156</v>
@@ -1673,7 +1671,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="2">
         <v>6964</v>
@@ -1690,7 +1688,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="2">
         <v>6685</v>
@@ -1707,7 +1705,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="2">
         <v>1535</v>
@@ -1724,7 +1722,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="2">
         <v>4163</v>
@@ -1741,7 +1739,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="2">
         <v>2627</v>
@@ -1758,7 +1756,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="2">
         <v>7666</v>
@@ -1775,7 +1773,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2">
         <v>46220</v>
@@ -1792,7 +1790,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" s="2">
         <v>25307</v>
@@ -1809,7 +1807,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="2">
         <v>11022</v>
@@ -1826,7 +1824,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="2">
         <v>116572</v>
@@ -1843,7 +1841,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="2">
         <v>9127</v>
@@ -1860,7 +1858,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62">
         <v>417</v>
@@ -1877,7 +1875,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2">
         <v>5430</v>
@@ -1894,7 +1892,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" s="2">
         <v>9399</v>
@@ -1911,7 +1909,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="2">
         <v>25553</v>
@@ -1928,7 +1926,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2">
         <v>1590</v>
@@ -1945,7 +1943,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="2">
         <v>5404</v>
@@ -1962,7 +1960,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="2">
         <v>3260</v>
@@ -1979,7 +1977,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="2">
         <v>3368</v>
@@ -1996,7 +1994,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" s="2">
         <v>1489</v>
@@ -2013,7 +2011,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2">
         <v>1791</v>
@@ -2030,7 +2028,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="2">
         <v>138372</v>
@@ -2047,7 +2045,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="2">
         <v>8269</v>
@@ -2064,7 +2062,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="2">
         <v>2418</v>
@@ -2081,7 +2079,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2">
         <v>18048</v>
@@ -2098,7 +2096,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" s="2">
         <v>2698</v>
@@ -2115,7 +2113,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2">
         <v>10356</v>
@@ -2132,7 +2130,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2">
         <v>3992</v>
@@ -2149,7 +2147,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2">
         <v>3766</v>
@@ -2166,7 +2164,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80" s="2">
         <v>1825</v>
@@ -2183,7 +2181,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B81" s="2">
         <v>6803</v>
@@ -2200,7 +2198,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" s="2">
         <v>2491</v>
@@ -2217,7 +2215,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83" s="2">
         <v>23218</v>
@@ -2234,7 +2232,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B84" s="2">
         <v>4327</v>
@@ -2251,7 +2249,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B85" s="2">
         <v>4621</v>
@@ -2268,7 +2266,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2">
         <v>53099</v>
@@ -2285,7 +2283,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2">
         <v>64440</v>
@@ -2302,7 +2300,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B88" s="2">
         <v>3667</v>
@@ -2319,7 +2317,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B89" s="2">
         <v>3252</v>
@@ -2336,7 +2334,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B90">
         <v>464</v>
@@ -2353,7 +2351,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B91" s="2">
         <v>2971</v>
@@ -2370,7 +2368,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B92" s="2">
         <v>7995</v>
@@ -2387,7 +2385,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B93" s="2">
         <v>3007</v>
@@ -2404,7 +2402,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B94" s="2">
         <v>1954</v>
@@ -2421,7 +2419,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2">
         <v>12389</v>
@@ -2438,7 +2436,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B96" s="2">
         <v>10115</v>
@@ -2455,7 +2453,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2">
         <v>2054</v>
@@ -2472,7 +2470,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2">
         <v>30948</v>
@@ -2489,7 +2487,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B99" s="2">
         <v>5320</v>
@@ -2506,7 +2504,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B100" s="2">
         <v>4973</v>
@@ -2523,7 +2521,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" s="2">
         <v>7103</v>
@@ -2540,7 +2538,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B102" s="2">
         <v>142863</v>
@@ -2557,7 +2555,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B103" s="2">
         <v>4925</v>
@@ -2574,7 +2572,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2">
         <v>3358</v>
@@ -2591,7 +2589,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B105" s="2">
         <v>2096</v>
@@ -2608,7 +2606,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B106" s="2">
         <v>92175</v>
@@ -2625,7 +2623,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" s="2">
         <v>1513</v>
@@ -2642,7 +2640,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B108" s="2">
         <v>26773</v>
@@ -2659,7 +2657,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2">
         <v>21801</v>
@@ -2676,7 +2674,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" s="2">
         <v>4086</v>
@@ -2693,7 +2691,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B111" s="2">
         <v>12644</v>
@@ -2710,7 +2708,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B112" s="2">
         <v>2373</v>
@@ -2727,7 +2725,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2">
         <v>5148</v>
@@ -2744,7 +2742,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B114" s="2">
         <v>1692</v>
@@ -2761,7 +2759,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B115" s="2">
         <v>6836</v>
@@ -2778,7 +2776,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B116" s="2">
         <v>3008</v>
@@ -2795,7 +2793,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B117" s="2">
         <v>3969</v>
@@ -2812,7 +2810,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B118" s="2">
         <v>34307</v>
@@ -2829,7 +2827,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B119" s="2">
         <v>40245</v>
@@ -2846,7 +2844,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2">
         <v>6981</v>
@@ -2863,7 +2861,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121" s="2">
         <v>28676</v>
@@ -2880,7 +2878,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B122" s="2">
         <v>2397</v>
@@ -2897,7 +2895,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B123" s="2">
         <v>2827</v>
@@ -2914,7 +2912,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B124" s="2">
         <v>3205</v>
@@ -2931,7 +2929,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2">
         <v>117393</v>
@@ -2948,7 +2946,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B126" s="2">
         <v>6603</v>
@@ -2965,7 +2963,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B127" s="2">
         <v>6617</v>
@@ -2982,7 +2980,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2">
         <v>4961</v>
@@ -2999,7 +2997,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B129" s="2">
         <v>4501</v>
@@ -3016,7 +3014,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2">
         <v>4790</v>
@@ -3033,7 +3031,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2">
         <v>6610</v>
@@ -3050,7 +3048,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B132" s="2">
         <v>3110</v>
@@ -3067,7 +3065,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B133" s="2">
         <v>3143</v>
@@ -3084,7 +3082,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B134" s="2">
         <v>17683</v>
